--- a/examples/sources/data/unsolved/to_schedule/2019-04-25.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-25.xlsx
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>43580</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>43580</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
         <v>43580</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" s="2">
         <v>43580</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" s="2">
         <v>43580</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105">
         <v>1</v>
